--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E6E4AC-E8BD-4137-98C8-E44E006CD7E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId2"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId3"/>
+    <sheet name="free_bonus" sheetId="5" r:id="rId2"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId3"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+  <si>
+    <t>Features of enter vpn</t>
+  </si>
   <si>
     <t>1. Log-in</t>
   </si>
@@ -83,7 +76,10 @@
     <t>18. Logout</t>
   </si>
   <si>
-    <t>Features of enter vpn</t>
+    <t xml:space="preserve"> Test Case Summary (13-02-24)</t>
+  </si>
+  <si>
+    <t>Execute</t>
   </si>
   <si>
     <t>Pass</t>
@@ -92,91 +88,249 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Execute</t>
+    <t>Not Tested</t>
   </si>
   <si>
     <t>Ref. ID of Failed Test Case</t>
   </si>
   <si>
-    <t>Not Tested</t>
+    <t>SYMFREEBON-074,
+SYMFREEBON-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (12-02-24)</t>
+  </si>
+  <si>
+    <t>TC_SYM_STAC_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (11-02-24)</t>
   </si>
   <si>
     <t>TC_SYM_GST_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Case Summary (12-02-24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Case Summary (11-02-24)</t>
-  </si>
-  <si>
-    <t>TC_SYM_STAC_021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +345,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -206,89 +546,375 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -372,7 +998,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,174 +1172,242 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA10FA30-C202-4E11-BDE6-8D5A5E86909E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="21" spans="2:2">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A6EF3-24FB-4C9D-AEC2-5587359EA39C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="3.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="37.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.75" spans="4:5">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" spans="4:5">
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="4:5">
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="4:5">
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="4:5">
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="73.5" customHeight="1" spans="4:5">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="3.57142857142857" customWidth="1"/>
+    <col min="4" max="4" width="37.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
+    <row r="2" ht="18.75" spans="4:5">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" spans="4:5">
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
+    </row>
+    <row r="4" ht="18.75" spans="4:5">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3">
+    <row r="5" ht="18.75" spans="4:5">
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" ht="18.75" spans="4:5">
       <c r="D6" s="7" t="s">
         <v>23</v>
       </c>
@@ -721,11 +1415,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
+    <row r="8" ht="73.5" customHeight="1" spans="4:5">
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -734,55 +1428,57 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2717222-4177-4ABA-B79D-1AEA00CED8DA}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="2" ht="18.75" spans="3:4">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" ht="18.75" spans="3:4">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="3:4">
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
+    </row>
+    <row r="5" ht="18.75" spans="3:7">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="3:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="18.75" spans="3:4">
       <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
@@ -790,12 +1486,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="8" ht="172.5" customHeight="1" spans="3:4">
+      <c r="C8" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -803,6 +1499,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39FE6EF-59A7-4015-AD1C-8FB35B2BBBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26763C8B-120D-4F2D-BC16-9173B5FC189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
     <sheet name="free_bonus" sheetId="5" r:id="rId2"/>
-    <sheet name="redeem_voucher" sheetId="7" r:id="rId3"/>
-    <sheet name="logout" sheetId="6" r:id="rId4"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId5"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId6"/>
+    <sheet name="purchase_page" sheetId="8" r:id="rId3"/>
+    <sheet name="redeem_voucher" sheetId="7" r:id="rId4"/>
+    <sheet name="logout" sheetId="6" r:id="rId5"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId6"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Features of enter vpn</t>
   </si>
@@ -122,6 +123,17 @@
   </si>
   <si>
     <t>SYMREDVOU-022</t>
+  </si>
+  <si>
+    <t>SYM-PP-04,
+SYM-PP-08,
+SYM-PP-019,
+SYM-PP-022,
+SYM-PP-024,
+SYM-PP-025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (15-02-24)</t>
   </si>
 </sst>
 </file>
@@ -744,10 +756,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E9BD1-861C-4DAA-A578-3640159897E0}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="98.25" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D112B8-BA61-4323-A81E-60AEE54129B4}">
   <dimension ref="D2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -879,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -948,7 +1029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G8"/>
   <sheetViews>

--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26763C8B-120D-4F2D-BC16-9173B5FC189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0340FB73-56DD-4EA8-B29C-0CFE594F57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
-    <sheet name="free_bonus" sheetId="5" r:id="rId2"/>
-    <sheet name="purchase_page" sheetId="8" r:id="rId3"/>
-    <sheet name="redeem_voucher" sheetId="7" r:id="rId4"/>
-    <sheet name="logout" sheetId="6" r:id="rId5"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId6"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId7"/>
+    <sheet name="protocols(setting)" sheetId="9" r:id="rId2"/>
+    <sheet name="free_bonus" sheetId="5" r:id="rId3"/>
+    <sheet name="purchase_page" sheetId="8" r:id="rId4"/>
+    <sheet name="redeem_voucher" sheetId="7" r:id="rId5"/>
+    <sheet name="logout" sheetId="6" r:id="rId6"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId7"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Features of enter vpn</t>
   </si>
@@ -135,17 +136,30 @@
   <si>
     <t xml:space="preserve"> Test Case Summary (15-02-24)</t>
   </si>
+  <si>
+    <t>TC_SYM_STP_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (19-02-24)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,19 +286,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,12 +307,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,6 +704,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9FAD35-8DBC-4806-9676-42FE393D7535}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -755,11 +841,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E9BD1-861C-4DAA-A578-3640159897E0}">
   <dimension ref="D2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -824,7 +910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D112B8-BA61-4323-A81E-60AEE54129B4}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -893,7 +979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -960,7 +1046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1029,7 +1115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G8"/>
   <sheetViews>

--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0340FB73-56DD-4EA8-B29C-0CFE594F57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CA167-4AE5-4E11-BA3C-38CA0AAEBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
-    <sheet name="protocols(setting)" sheetId="9" r:id="rId2"/>
-    <sheet name="free_bonus" sheetId="5" r:id="rId3"/>
-    <sheet name="purchase_page" sheetId="8" r:id="rId4"/>
-    <sheet name="redeem_voucher" sheetId="7" r:id="rId5"/>
-    <sheet name="logout" sheetId="6" r:id="rId6"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId7"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId8"/>
+    <sheet name="my_account" sheetId="10" r:id="rId2"/>
+    <sheet name="protocols(setting)" sheetId="9" r:id="rId3"/>
+    <sheet name="forget_password" sheetId="11" r:id="rId4"/>
+    <sheet name="free_bonus" sheetId="5" r:id="rId5"/>
+    <sheet name="purchase_page" sheetId="8" r:id="rId6"/>
+    <sheet name="redeem_voucher" sheetId="7" r:id="rId7"/>
+    <sheet name="logout" sheetId="6" r:id="rId8"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId9"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Features of enter vpn</t>
   </si>
@@ -142,17 +144,34 @@
   <si>
     <t xml:space="preserve"> Test Case Summary (19-02-24)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (20-02-24)</t>
+  </si>
+  <si>
+    <t>TC_SYM_MA_006,
+TC_SYM_MA_023</t>
+  </si>
+  <si>
+    <t>SYM-WIN-LOG-029</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,19 +305,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -307,11 +326,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,8 +725,216 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" ht="18.75">
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="3:7" ht="18.75">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="18.75">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="18.75">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="3:7" ht="18.75">
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="172.5" customHeight="1">
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB23A23-F00D-4C6E-B9AD-D00FE803CA50}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9FAD35-8DBC-4806-9676-42FE393D7535}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0FE5E3-5A70-40FA-B724-E1A08306649D}">
   <dimension ref="D2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -719,17 +949,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="4:5" ht="18.75">
@@ -737,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="4:5" ht="18.75">
@@ -760,8 +990,8 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>34</v>
+      <c r="E8" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -788,10 +1018,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -841,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E9BD1-861C-4DAA-A578-3640159897E0}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -857,10 +1087,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -910,7 +1140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D112B8-BA61-4323-A81E-60AEE54129B4}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -926,10 +1156,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -979,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -995,10 +1225,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1046,7 +1276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1062,10 +1292,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1113,74 +1343,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7" ht="18.75">
-      <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="3:7" ht="18.75">
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" ht="18.75">
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" ht="18.75">
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="3:7" ht="18.75">
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="172.5" customHeight="1">
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>
--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CA167-4AE5-4E11-BA3C-38CA0AAEBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5BC574-4F6E-4D24-B7C9-1551725A7BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
     <sheet name="my_account" sheetId="10" r:id="rId2"/>
     <sheet name="protocols(setting)" sheetId="9" r:id="rId3"/>
-    <sheet name="forget_password" sheetId="11" r:id="rId4"/>
-    <sheet name="free_bonus" sheetId="5" r:id="rId5"/>
-    <sheet name="purchase_page" sheetId="8" r:id="rId6"/>
-    <sheet name="redeem_voucher" sheetId="7" r:id="rId7"/>
-    <sheet name="logout" sheetId="6" r:id="rId8"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId9"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId10"/>
+    <sheet name="ad_block_server" sheetId="12" r:id="rId4"/>
+    <sheet name="forget_password" sheetId="11" r:id="rId5"/>
+    <sheet name="free_bonus" sheetId="5" r:id="rId6"/>
+    <sheet name="purchase_page" sheetId="8" r:id="rId7"/>
+    <sheet name="redeem_voucher" sheetId="7" r:id="rId8"/>
+    <sheet name="logout" sheetId="6" r:id="rId9"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId10"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Features of enter vpn</t>
   </si>
@@ -148,23 +149,34 @@
     <t xml:space="preserve"> Test Case Summary (20-02-24)</t>
   </si>
   <si>
+    <t>SYM-WIN-LOG-029</t>
+  </si>
+  <si>
     <t>TC_SYM_MA_006,
-TC_SYM_MA_023</t>
-  </si>
-  <si>
-    <t>SYM-WIN-LOG-029</t>
+TC_SYM_MA_023,
+TC_SYM_MA_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (22-02-24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,19 +317,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,18 +338,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,6 +741,75 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G8"/>
   <sheetViews>
@@ -740,10 +824,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="18.75">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="3:7" ht="18.75">
       <c r="C3" s="1" t="s">
@@ -800,7 +884,7 @@
   <dimension ref="D2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -811,17 +895,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="4:5" ht="18.75">
@@ -837,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:5" ht="18.75">
@@ -852,8 +936,8 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>37</v>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +964,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -934,10 +1018,77 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33E54C-DEB5-4BB8-BB86-A2471A6B4B70}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="98.25" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0FE5E3-5A70-40FA-B724-E1A08306649D}">
   <dimension ref="D2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -949,10 +1100,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -990,8 +1141,8 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>38</v>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1002,11 +1153,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1018,10 +1169,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1071,7 +1222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E9BD1-861C-4DAA-A578-3640159897E0}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1087,10 +1238,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1140,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D112B8-BA61-4323-A81E-60AEE54129B4}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1156,10 +1307,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1209,7 +1360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1225,10 +1376,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="4:5" ht="18.75">
       <c r="D3" s="1" t="s">
@@ -1267,75 +1418,6 @@
         <v>24</v>
       </c>
       <c r="E8" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D2:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="4:5" ht="18.75">
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="18.75">
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="18.75">
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="18.75">
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="73.5" customHeight="1">
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/exec/symlex_vpn_windows/report_summary.xlsx
+++ b/exec/symlex_vpn_windows/report_summary.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\symlex_vpn_windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5BC574-4F6E-4D24-B7C9-1551725A7BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE71BC00-B2F7-43F4-8F36-BABD197E784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="2" r:id="rId1"/>
     <sheet name="my_account" sheetId="10" r:id="rId2"/>
     <sheet name="protocols(setting)" sheetId="9" r:id="rId3"/>
-    <sheet name="ad_block_server" sheetId="12" r:id="rId4"/>
-    <sheet name="forget_password" sheetId="11" r:id="rId5"/>
-    <sheet name="free_bonus" sheetId="5" r:id="rId6"/>
-    <sheet name="purchase_page" sheetId="8" r:id="rId7"/>
-    <sheet name="redeem_voucher" sheetId="7" r:id="rId8"/>
-    <sheet name="logout" sheetId="6" r:id="rId9"/>
-    <sheet name="auto_connect" sheetId="4" r:id="rId10"/>
-    <sheet name="general(settings)" sheetId="3" r:id="rId11"/>
+    <sheet name="connection_page" sheetId="13" r:id="rId4"/>
+    <sheet name="ad_block_server" sheetId="12" r:id="rId5"/>
+    <sheet name="forget_password" sheetId="11" r:id="rId6"/>
+    <sheet name="free_bonus" sheetId="5" r:id="rId7"/>
+    <sheet name="purchase_page" sheetId="8" r:id="rId8"/>
+    <sheet name="redeem_voucher" sheetId="7" r:id="rId9"/>
+    <sheet name="connected_devices" sheetId="14" r:id="rId10"/>
+    <sheet name="logout" sheetId="6" r:id="rId11"/>
+    <sheet name="auto_connect" sheetId="4" r:id="rId12"/>
+    <sheet name="general(settings)" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Features of enter vpn</t>
   </si>
@@ -105,10 +107,6 @@
   </si>
   <si>
     <t>Ref. ID of Failed Test Case</t>
-  </si>
-  <si>
-    <t>SYMFREEBON-074,
-SYMFREEBON-075</t>
   </si>
   <si>
     <t xml:space="preserve"> Test Case Summary (12-02-24)</t>
@@ -159,17 +157,37 @@
   <si>
     <t xml:space="preserve"> Test Case Summary (22-02-24)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Test Case Summary (26-02-24)</t>
+  </si>
+  <si>
+    <t>TC_SYM_AC_011,
+TC_SYM_AC_012,
+TC_SYM_AC_013</t>
+  </si>
+  <si>
+    <t>SYMFREEBON-074,
+SYMFREEBON-075,
+SYMFREEBON-076</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,19 +335,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,21 +356,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,6 +762,140 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B3D4B-C81A-4118-8051-58CD51E77CE6}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="73.5" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -757,7 +912,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -798,7 +953,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G8"/>
   <sheetViews>
@@ -825,7 +980,7 @@
   <sheetData>
     <row r="2" spans="3:7" ht="18.75">
       <c r="C2" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="13"/>
     </row>
@@ -867,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1051,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -937,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1120,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1006,7 +1161,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1173,79 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0240F835-33DB-4C28-A260-ECF0731AC899}">
+  <dimension ref="D2:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:5" ht="18.75">
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="4:5" ht="18.75">
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" ht="18.75">
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" ht="18.75">
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" ht="18.75">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="98.25" customHeight="1">
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33E54C-DEB5-4BB8-BB86-A2471A6B4B70}">
   <dimension ref="D2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1034,7 +1258,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1084,7 +1308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0FE5E3-5A70-40FA-B724-E1A08306649D}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1101,7 +1325,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1142,7 +1366,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1153,12 +1377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1187,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="4:5" ht="18.75">
@@ -1195,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:5" ht="18.75">
@@ -1210,8 +1434,8 @@
       <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
+      <c r="E8" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E9BD1-861C-4DAA-A578-3640159897E0}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1239,7 +1463,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1280,7 +1504,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D112B8-BA61-4323-A81E-60AEE54129B4}">
   <dimension ref="D2:E8"/>
   <sheetViews>
@@ -1308,7 +1532,7 @@
   <sheetData>
     <row r="2" spans="4:5" ht="18.75">
       <c r="D2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -1349,75 +1573,8 @@
         <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A287E34E-8299-4D47-B00D-598C59273152}">
-  <dimension ref="D2:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:5" ht="18.75">
-      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="4:5" ht="18.75">
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" ht="18.75">
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="18.75">
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" ht="18.75">
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" ht="73.5" customHeight="1">
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
